--- a/Carpeta de Estudio/E02/Repo2/Patrones de diseño.xlsx
+++ b/Carpeta de Estudio/E02/Repo2/Patrones de diseño.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Documentos\GitHub\MIC-Evolucion_patrones_de_diseno\Carpeta de Estudio\E02\Repo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF3AF6-0E68-4DD7-837B-DB6C46A4D389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC4E5AA-4623-4722-B378-81A5645476A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
